--- a/user-data/oda-TH/oda-TH.xlsx
+++ b/user-data/oda-TH/oda-TH.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/oda-TH/oda-TH.xlsx
+++ b/user-data/oda-TH/oda-TH.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -25,6 +25,480 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
     <t xml:space="preserve">Name: oda-TH</t>
@@ -394,22 +868,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +891,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +899,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -492,478 +966,1110 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16289.7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68413.1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107401</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>842326</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28745.3</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113.33</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3630280</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9952.21</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43682.6</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>137725</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18260.1</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11534.4</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18579.6</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6240.97</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49106</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19904.4</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20371.6</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10739.5</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25086.7</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D21" t="n">
+        <v>165763</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>78012.1</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26859</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>87537.4</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="n">
+        <v>78012.1</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10756.5</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7384.47</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30581.9</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D29" t="n">
+        <v>31655.5</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D30" t="n">
+        <v>354630</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="n">
+        <v>816.91</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6398.9</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D33" t="n">
+        <v>39419.9</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4111.9</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D35" t="n">
+        <v>83647.7</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11183.4</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2716.9</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D38" t="n">
+        <v>41148820</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17444.9</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39495.9</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D41" t="n">
+        <v>111495</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" t="n">
+        <v>81271.9</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D43" t="n">
+        <v>170366</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>51625.5</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7571.64</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36349.1</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D47" t="n">
+        <v>56660.1</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D48" t="n">
+        <v>34249.3</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17246</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D50" t="n">
+        <v>105152</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D51" t="n">
+        <v>18491600</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D52" t="n">
+        <v>436655</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15985.5</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1252440</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4068.04</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6249.74</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54498.8</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27575.5</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="n">
+        <v>233768</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9425.8</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6059.65</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4922</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12312.3</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4106.64</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D65" t="n">
+        <v>154213</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="n">
+        <v>89882.8</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D67" t="n">
+        <v>21047.9</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9928.82</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="n">
+        <v>177186</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D70" t="n">
+        <v>218249</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D71" t="n">
+        <v>24806</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D72" t="n">
+        <v>86481.6</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D73" t="n">
+        <v>39259</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D74" t="n">
+        <v>108977</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6913.61</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D76" t="n">
+        <v>84022.1</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1066980</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100136</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D79" t="n">
+        <v>18386.6</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D80" t="n">
+        <v>57427.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/oda-TH/oda-TH.xlsx
+++ b/user-data/oda-TH/oda-TH.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -27,13 +27,487 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: oda-TH</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Gross official development assistance from Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -394,22 +868,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +891,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +899,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -492,478 +966,1110 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16289.7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68413.1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107401</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>842326</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28745.3</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113.33</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19904.4</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3630280</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9952.21</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43682.6</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>137725</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18260.1</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11534.4</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18579.6</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6240.97</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49106</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20371.6</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10739.5</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25086.7</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D21" t="n">
+        <v>165763</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>78012.1</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26859</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>87537.4</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="n">
+        <v>78012.1</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10756.5</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7384.47</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30581.9</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D29" t="n">
+        <v>31655.5</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D30" t="n">
+        <v>354630</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="n">
+        <v>816.91</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6398.9</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D33" t="n">
+        <v>39419.9</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4111.9</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D35" t="n">
+        <v>83647.7</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11183.4</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2716.9</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D38" t="n">
+        <v>41148820</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17444.9</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39495.9</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D41" t="n">
+        <v>111495</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" t="n">
+        <v>81271.9</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D43" t="n">
+        <v>170366</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>51625.5</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7571.64</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36349.1</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D47" t="n">
+        <v>56660.1</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D48" t="n">
+        <v>34249.3</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17246</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D50" t="n">
+        <v>105152</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D51" t="n">
+        <v>18491600</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D52" t="n">
+        <v>436655</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15985.5</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1252440</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4068.04</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6249.74</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54498.8</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27575.5</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="n">
+        <v>233768</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9425.8</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6059.65</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4922</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12312.3</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4106.64</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D65" t="n">
+        <v>154213</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="n">
+        <v>89882.8</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D67" t="n">
+        <v>21047.9</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9928.82</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="n">
+        <v>177186</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D70" t="n">
+        <v>218249</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D71" t="n">
+        <v>24806</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D72" t="n">
+        <v>86481.6</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D73" t="n">
+        <v>39259</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D74" t="n">
+        <v>108977</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6913.61</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D76" t="n">
+        <v>84022.1</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1066980</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100136</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D79" t="n">
+        <v>18386.6</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D80" t="n">
+        <v>57427.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
